--- a/Volledige_Data_Set.xlsx
+++ b/Volledige_Data_Set.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\Projects\Biomechanis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DACE44-D838-47B5-917D-B63A756C5285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E562045-A8D7-468A-9883-DA7F19BD19E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{569A95A3-47FE-42D6-A588-8CC2E9F95304}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="9" xr2:uid="{569A95A3-47FE-42D6-A588-8CC2E9F95304}"/>
   </bookViews>
   <sheets>
-    <sheet name="Elien Eigen 1" sheetId="32" r:id="rId1"/>
-    <sheet name="Elien Eigen 2" sheetId="33" r:id="rId2"/>
-    <sheet name="Elien Eigen 3" sheetId="34" r:id="rId3"/>
-    <sheet name="Elien Eigen 4" sheetId="35" r:id="rId4"/>
-    <sheet name="Elien Eigen 5" sheetId="36" r:id="rId5"/>
-    <sheet name="Elien Eigen 6" sheetId="37" r:id="rId6"/>
-    <sheet name="Elien_Circ1" sheetId="20" r:id="rId7"/>
-    <sheet name="Elien_Circ2" sheetId="21" r:id="rId8"/>
-    <sheet name="Elien_Circ3" sheetId="22" r:id="rId9"/>
-    <sheet name="Elien_Circ4" sheetId="23" r:id="rId10"/>
-    <sheet name="Elien_Circ5" sheetId="24" r:id="rId11"/>
-    <sheet name="Elien_Circ6" sheetId="25" r:id="rId12"/>
+    <sheet name="Elien_Eigen_1" sheetId="32" r:id="rId1"/>
+    <sheet name="Elien_Eigen_2" sheetId="33" r:id="rId2"/>
+    <sheet name="Elien_Eigen_3" sheetId="34" r:id="rId3"/>
+    <sheet name="Elien_Eigen_4" sheetId="35" r:id="rId4"/>
+    <sheet name="Elien_Eigen_5" sheetId="36" r:id="rId5"/>
+    <sheet name="Elien_Eigen_6" sheetId="37" r:id="rId6"/>
+    <sheet name="Elien_Circular_1" sheetId="20" r:id="rId7"/>
+    <sheet name="Elien_Circular_2" sheetId="21" r:id="rId8"/>
+    <sheet name="Elien_Circular_3" sheetId="22" r:id="rId9"/>
+    <sheet name="Elien_Circular_4" sheetId="23" r:id="rId10"/>
+    <sheet name="Elien_Circular_5" sheetId="24" r:id="rId11"/>
+    <sheet name="Elien_Circular_6" sheetId="25" r:id="rId12"/>
     <sheet name="Yenthe_Circ1" sheetId="26" r:id="rId13"/>
     <sheet name="Yenthe_Circ2" sheetId="27" r:id="rId14"/>
     <sheet name="Yenthe_Circ3" sheetId="28" r:id="rId15"/>
@@ -151,24 +151,6 @@
     <t>Ball speed</t>
   </si>
   <si>
-    <t>Elien_Circ1</t>
-  </si>
-  <si>
-    <t>Elien_Circ2</t>
-  </si>
-  <si>
-    <t>Elien_Circ3</t>
-  </si>
-  <si>
-    <t>Elien_Circ4</t>
-  </si>
-  <si>
-    <t>Elien_Circ5</t>
-  </si>
-  <si>
-    <t>Elien_Circ6</t>
-  </si>
-  <si>
     <t>Yenthe_Circ1</t>
   </si>
   <si>
@@ -203,6 +185,24 @@
   </si>
   <si>
     <t>Elien_Eigen_6</t>
+  </si>
+  <si>
+    <t>Elien_Circular_1</t>
+  </si>
+  <si>
+    <t>Elien_Circular_2</t>
+  </si>
+  <si>
+    <t>Elien_Circular_3</t>
+  </si>
+  <si>
+    <t>Elien_Circular_4</t>
+  </si>
+  <si>
+    <t>Elien_Circular_5</t>
+  </si>
+  <si>
+    <t>Elien_Circular_6</t>
   </si>
 </sst>
 </file>
@@ -619,7 +619,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>149.22999999999999</v>
@@ -2368,8 +2368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFC7F33-CC2F-4B12-83CD-5CE1AD72D051}">
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>157.22999999999999</v>
@@ -4199,7 +4199,7 @@
   <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>160.03</v>
@@ -5901,7 +5901,7 @@
   <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5939,7 +5939,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>153.38</v>
@@ -7533,7 +7533,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>151.91999999999999</v>
@@ -8949,7 +8949,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>154.63999999999999</v>
@@ -10679,7 +10679,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>149.16999999999999</v>
@@ -12861,7 +12861,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>151.28</v>
@@ -14873,7 +14873,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>149.63</v>
@@ -17184,7 +17184,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>147.07</v>
@@ -21591,7 +21591,7 @@
   <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21629,7 +21629,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>149.97</v>
@@ -41911,7 +41911,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>143.84</v>
@@ -54355,7 +54355,7 @@
   <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54393,7 +54393,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>145.78</v>
@@ -56381,8 +56381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E5B841-2C26-4C54-8E2F-C11204EFB83C}">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I37" sqref="I36:I37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -56420,7 +56420,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>144.27000000000001</v>
@@ -57969,7 +57969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1540ABCB-B664-4880-B5B3-5B61A354C644}">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -58008,7 +58008,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>140.32</v>
@@ -59667,7 +59667,7 @@
   <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -59712,7 +59712,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>153.88999999999999</v>
@@ -61904,7 +61904,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -61947,7 +61947,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>168.43</v>
@@ -63204,7 +63204,7 @@
   <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -63247,7 +63247,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>164</v>

--- a/Volledige_Data_Set.xlsx
+++ b/Volledige_Data_Set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\Projects\Biomechanis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E562045-A8D7-468A-9883-DA7F19BD19E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE80A6F-A123-4A3D-8CDD-72D02677511F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="9" xr2:uid="{569A95A3-47FE-42D6-A588-8CC2E9F95304}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="19" xr2:uid="{569A95A3-47FE-42D6-A588-8CC2E9F95304}"/>
   </bookViews>
   <sheets>
     <sheet name="Elien_Eigen_1" sheetId="32" r:id="rId1"/>
@@ -25,12 +25,12 @@
     <sheet name="Elien_Circular_4" sheetId="23" r:id="rId10"/>
     <sheet name="Elien_Circular_5" sheetId="24" r:id="rId11"/>
     <sheet name="Elien_Circular_6" sheetId="25" r:id="rId12"/>
-    <sheet name="Yenthe_Circ1" sheetId="26" r:id="rId13"/>
-    <sheet name="Yenthe_Circ2" sheetId="27" r:id="rId14"/>
-    <sheet name="Yenthe_Circ3" sheetId="28" r:id="rId15"/>
-    <sheet name="Yenthe_Circ4" sheetId="29" r:id="rId16"/>
-    <sheet name="Yenthe_Circ5" sheetId="30" r:id="rId17"/>
-    <sheet name="Yenthe_Circ6" sheetId="31" r:id="rId18"/>
+    <sheet name="Yenthe_Circular_1" sheetId="26" r:id="rId13"/>
+    <sheet name="Yenthe_Circular_2" sheetId="27" r:id="rId14"/>
+    <sheet name="Yenthe_Circular_3" sheetId="28" r:id="rId15"/>
+    <sheet name="Yenthe_Circular_4" sheetId="29" r:id="rId16"/>
+    <sheet name="Yenthe_Circular_5" sheetId="30" r:id="rId17"/>
+    <sheet name="Yenthe_Circular_6" sheetId="31" r:id="rId18"/>
     <sheet name="Elien_Arrow_1" sheetId="2" r:id="rId19"/>
     <sheet name="Elien_Arrow_2" sheetId="3" r:id="rId20"/>
     <sheet name="Elien_Arrow_3" sheetId="4" r:id="rId21"/>
@@ -151,24 +151,6 @@
     <t>Ball speed</t>
   </si>
   <si>
-    <t>Yenthe_Circ1</t>
-  </si>
-  <si>
-    <t>Yenthe_Circ2</t>
-  </si>
-  <si>
-    <t>Yenthe_Circ3</t>
-  </si>
-  <si>
-    <t>Yenthe_Circ4</t>
-  </si>
-  <si>
-    <t>Yenthe_Circ5</t>
-  </si>
-  <si>
-    <t>Yenthe_Circ6</t>
-  </si>
-  <si>
     <t>Elien_Eigen_1</t>
   </si>
   <si>
@@ -203,6 +185,24 @@
   </si>
   <si>
     <t>Elien_Circular_6</t>
+  </si>
+  <si>
+    <t>Yenthe_Circular_1</t>
+  </si>
+  <si>
+    <t>Yenthe_Circular_2</t>
+  </si>
+  <si>
+    <t>Yenthe_Circular_3</t>
+  </si>
+  <si>
+    <t>Yenthe_Circular_4</t>
+  </si>
+  <si>
+    <t>Yenthe_Circular_5</t>
+  </si>
+  <si>
+    <t>Yenthe_Circular_6</t>
   </si>
 </sst>
 </file>
@@ -619,7 +619,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>149.22999999999999</v>
@@ -2368,7 +2368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFC7F33-CC2F-4B12-83CD-5CE1AD72D051}">
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>157.22999999999999</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>160.03</v>
@@ -5939,7 +5939,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>153.38</v>
@@ -7495,7 +7495,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7533,7 +7533,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>151.91999999999999</v>
@@ -8911,7 +8911,7 @@
   <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8949,7 +8949,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>154.63999999999999</v>
@@ -10641,7 +10641,7 @@
   <dimension ref="A1:H149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10679,7 +10679,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>149.16999999999999</v>
@@ -12823,7 +12823,7 @@
   <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12861,7 +12861,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>151.28</v>
@@ -14835,7 +14835,7 @@
   <dimension ref="A1:H158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14873,7 +14873,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>149.63</v>
@@ -17146,7 +17146,7 @@
   <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17184,7 +17184,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>147.07</v>
@@ -19479,7 +19479,7 @@
   <dimension ref="A1:M217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21629,7 +21629,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>149.97</v>
@@ -23729,12 +23729,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3556CC-1F35-416E-8A64-A8EBD7455A24}">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" customWidth="1"/>
@@ -41911,7 +41912,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>143.84</v>
@@ -54393,7 +54394,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>145.78</v>
@@ -56420,7 +56421,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>144.27000000000001</v>
@@ -58008,7 +58009,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>140.32</v>
@@ -59712,7 +59713,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>153.88999999999999</v>
@@ -61947,7 +61948,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>168.43</v>
@@ -63247,7 +63248,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>164</v>

--- a/Volledige_Data_Set.xlsx
+++ b/Volledige_Data_Set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\Projects\Biomechanis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE80A6F-A123-4A3D-8CDD-72D02677511F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F1D646-A4E2-4232-B2E2-466B242E2DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="19" xr2:uid="{569A95A3-47FE-42D6-A588-8CC2E9F95304}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="31" activeTab="34" xr2:uid="{569A95A3-47FE-42D6-A588-8CC2E9F95304}"/>
   </bookViews>
   <sheets>
     <sheet name="Elien_Eigen_1" sheetId="32" r:id="rId1"/>
@@ -47,8 +47,7 @@
     <sheet name="Yenthe_Eigen_2" sheetId="15" r:id="rId32"/>
     <sheet name="Yenthe_Eigen_3" sheetId="16" r:id="rId33"/>
     <sheet name="Yenthe_Eigen_4" sheetId="17" r:id="rId34"/>
-    <sheet name="Yenthe_Eigen_5" sheetId="18" r:id="rId35"/>
-    <sheet name="Yenthe_Eigen_6" sheetId="19" r:id="rId36"/>
+    <sheet name="Yenthe_Eigen_6" sheetId="19" r:id="rId35"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="43">
   <si>
     <t>Time (ms)</t>
   </si>
@@ -116,9 +115,6 @@
   </si>
   <si>
     <t>Yenthe_Eigen_4</t>
-  </si>
-  <si>
-    <t>Yenthe_Eigen_5</t>
   </si>
   <si>
     <t>Yenthe_Eigen_6</t>
@@ -596,30 +592,30 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>149.22999999999999</v>
@@ -2389,30 +2385,30 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>157.22999999999999</v>
@@ -4214,30 +4210,30 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>160.03</v>
@@ -5916,30 +5912,30 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>153.38</v>
@@ -7510,30 +7506,30 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>151.91999999999999</v>
@@ -8926,30 +8922,30 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>154.63999999999999</v>
@@ -10656,30 +10652,30 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>149.16999999999999</v>
@@ -12838,30 +12834,30 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>151.28</v>
@@ -14850,30 +14846,30 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>149.63</v>
@@ -17161,30 +17157,30 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>147.07</v>
@@ -19500,25 +19496,25 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -21606,30 +21602,30 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>149.97</v>
@@ -23729,7 +23725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3556CC-1F35-416E-8A64-A8EBD7455A24}">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -23746,30 +23742,30 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>154.86000000000001</v>
@@ -25202,25 +25198,25 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -26378,30 +26374,30 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>159</v>
@@ -28569,25 +28565,25 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -30429,25 +30425,25 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -31944,30 +31940,30 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>149.69</v>
@@ -33401,25 +33397,25 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -35856,25 +35852,25 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -37686,25 +37682,25 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -40165,25 +40161,25 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -41889,30 +41885,30 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>143.84</v>
@@ -44224,25 +44220,25 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -45612,25 +45608,25 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -47254,25 +47250,25 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -49047,25 +49043,25 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -50749,25 +50745,25 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -52308,654 +52304,10 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C37411-56F6-44B5-BCE9-586F45AB99D2}">
-  <dimension ref="A1:H50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2">
-        <v>148.09</v>
-      </c>
-      <c r="C2">
-        <f>MAX(H:H)</f>
-        <v>19.455459999999999</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>2.1606239999999999</v>
-      </c>
-      <c r="F2">
-        <v>0.44508239999999999</v>
-      </c>
-      <c r="G2">
-        <v>0.2021134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>2.5222730000000002</v>
-      </c>
-      <c r="F3">
-        <v>0.72610419999999998</v>
-      </c>
-      <c r="G3">
-        <v>0.13968140000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D4">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>2.8839220000000001</v>
-      </c>
-      <c r="F4">
-        <v>1.007126</v>
-      </c>
-      <c r="G4">
-        <v>7.7249390000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D5">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>3.064864</v>
-      </c>
-      <c r="F5">
-        <v>1.313787</v>
-      </c>
-      <c r="G5">
-        <v>6.4947469999999993E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D6">
-        <v>29</v>
-      </c>
-      <c r="E6">
-        <v>2.9953189999999998</v>
-      </c>
-      <c r="F6">
-        <v>1.6392979999999999</v>
-      </c>
-      <c r="G6">
-        <v>9.5474379999999998E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D7">
-        <v>36</v>
-      </c>
-      <c r="E7">
-        <v>2.7702230000000001</v>
-      </c>
-      <c r="F7">
-        <v>1.9254800000000001</v>
-      </c>
-      <c r="G7">
-        <v>0.1640529</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D8">
-        <v>44</v>
-      </c>
-      <c r="E8">
-        <v>2.6377350000000002</v>
-      </c>
-      <c r="F8">
-        <v>2.0920209999999999</v>
-      </c>
-      <c r="G8">
-        <v>0.28074209999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D9">
-        <v>51</v>
-      </c>
-      <c r="E9">
-        <v>2.8104480000000001</v>
-      </c>
-      <c r="F9">
-        <v>2.0436169999999998</v>
-      </c>
-      <c r="G9">
-        <v>0.50086920000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D10">
-        <v>58</v>
-      </c>
-      <c r="E10">
-        <v>3.29149</v>
-      </c>
-      <c r="F10">
-        <v>1.741547</v>
-      </c>
-      <c r="G10">
-        <v>0.83152559999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D11">
-        <v>66</v>
-      </c>
-      <c r="E11">
-        <v>3.847315</v>
-      </c>
-      <c r="F11">
-        <v>1.4469460000000001</v>
-      </c>
-      <c r="G11">
-        <v>1.224362</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D12">
-        <v>73</v>
-      </c>
-      <c r="E12">
-        <v>4.1495179999999996</v>
-      </c>
-      <c r="F12">
-        <v>1.676239</v>
-      </c>
-      <c r="G12">
-        <v>1.6454390000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D13">
-        <v>80</v>
-      </c>
-      <c r="E13">
-        <v>3.967851</v>
-      </c>
-      <c r="F13">
-        <v>2.8579180000000002</v>
-      </c>
-      <c r="G13">
-        <v>2.1201490000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D14">
-        <v>88</v>
-      </c>
-      <c r="E14">
-        <v>3.33229</v>
-      </c>
-      <c r="F14">
-        <v>5.1166010000000002</v>
-      </c>
-      <c r="G14">
-        <v>2.6787200000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D15">
-        <v>95</v>
-      </c>
-      <c r="E15">
-        <v>2.759665</v>
-      </c>
-      <c r="F15">
-        <v>8.0294399999999992</v>
-      </c>
-      <c r="G15">
-        <v>3.272659</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D16">
-        <v>102</v>
-      </c>
-      <c r="E16">
-        <v>3.2269199999999998</v>
-      </c>
-      <c r="F16">
-        <v>10.793430000000001</v>
-      </c>
-      <c r="G16">
-        <v>3.776996</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D17">
-        <v>109</v>
-      </c>
-      <c r="E17">
-        <v>5.2979450000000003</v>
-      </c>
-      <c r="F17">
-        <v>12.34765</v>
-      </c>
-      <c r="G17">
-        <v>4.0698730000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D18">
-        <v>117</v>
-      </c>
-      <c r="E18">
-        <v>8.4782910000000005</v>
-      </c>
-      <c r="F18">
-        <v>11.9962</v>
-      </c>
-      <c r="G18">
-        <v>4.0895510000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D19">
-        <v>124</v>
-      </c>
-      <c r="E19">
-        <v>11.21584</v>
-      </c>
-      <c r="F19">
-        <v>9.8815449999999991</v>
-      </c>
-      <c r="G19">
-        <v>3.8393459999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D20">
-        <v>131</v>
-      </c>
-      <c r="E20">
-        <v>12.18065</v>
-      </c>
-      <c r="F20">
-        <v>6.9037179999999996</v>
-      </c>
-      <c r="G20">
-        <v>3.3856030000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D21">
-        <v>139</v>
-      </c>
-      <c r="E21">
-        <v>11.298310000000001</v>
-      </c>
-      <c r="F21">
-        <v>4.1638489999999999</v>
-      </c>
-      <c r="G21">
-        <v>2.8483399999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D22">
-        <v>146</v>
-      </c>
-      <c r="E22">
-        <v>9.7525250000000003</v>
-      </c>
-      <c r="F22">
-        <v>2.4285190000000001</v>
-      </c>
-      <c r="G22">
-        <v>2.3451409999999999</v>
-      </c>
-      <c r="H22">
-        <v>19.455459999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D23">
-        <v>153</v>
-      </c>
-      <c r="E23">
-        <v>8.6738610000000005</v>
-      </c>
-      <c r="F23">
-        <v>1.7971330000000001</v>
-      </c>
-      <c r="G23">
-        <v>1.9265620000000001</v>
-      </c>
-      <c r="H23">
-        <v>18.968859999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D24">
-        <v>161</v>
-      </c>
-      <c r="E24">
-        <v>8.1247860000000003</v>
-      </c>
-      <c r="F24">
-        <v>1.7934540000000001</v>
-      </c>
-      <c r="G24">
-        <v>1.581699</v>
-      </c>
-      <c r="H24">
-        <v>18.482250000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D25">
-        <v>168</v>
-      </c>
-      <c r="E25">
-        <v>7.4345860000000004</v>
-      </c>
-      <c r="F25">
-        <v>1.8297429999999999</v>
-      </c>
-      <c r="G25">
-        <v>1.300915</v>
-      </c>
-      <c r="H25">
-        <v>17.77327</v>
-      </c>
-    </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D26">
-        <v>175</v>
-      </c>
-      <c r="E26">
-        <v>6.2516220000000002</v>
-      </c>
-      <c r="F26">
-        <v>1.658547</v>
-      </c>
-      <c r="G26">
-        <v>1.104781</v>
-      </c>
-      <c r="H26">
-        <v>16.796099999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D27">
-        <v>182</v>
-      </c>
-      <c r="E27">
-        <v>4.8503559999999997</v>
-      </c>
-      <c r="F27">
-        <v>1.487352</v>
-      </c>
-      <c r="G27">
-        <v>1.021914</v>
-      </c>
-      <c r="H27">
-        <v>15.67559</v>
-      </c>
-    </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D28">
-        <v>190</v>
-      </c>
-      <c r="E28">
-        <v>3.487206</v>
-      </c>
-      <c r="G28">
-        <v>1.069151</v>
-      </c>
-      <c r="H28">
-        <v>14.52783</v>
-      </c>
-    </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D29">
-        <v>197</v>
-      </c>
-      <c r="E29">
-        <v>2.1240549999999998</v>
-      </c>
-      <c r="G29">
-        <v>1.238599</v>
-      </c>
-      <c r="H29">
-        <v>13.44421</v>
-      </c>
-    </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D30">
-        <v>204</v>
-      </c>
-      <c r="G30">
-        <v>1.4817020000000001</v>
-      </c>
-      <c r="H30">
-        <v>12.485250000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D31">
-        <v>212</v>
-      </c>
-      <c r="G31">
-        <v>1.7518499999999999</v>
-      </c>
-      <c r="H31">
-        <v>11.678520000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D32">
-        <v>219</v>
-      </c>
-      <c r="G32">
-        <v>2.0219990000000001</v>
-      </c>
-      <c r="H32">
-        <v>11.02276</v>
-      </c>
-    </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D33">
-        <v>226</v>
-      </c>
-      <c r="H33">
-        <v>10.500120000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D34">
-        <v>234</v>
-      </c>
-      <c r="H34">
-        <v>10.08893</v>
-      </c>
-    </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D35">
-        <v>241</v>
-      </c>
-      <c r="H35">
-        <v>9.7709290000000006</v>
-      </c>
-    </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D36">
-        <v>248</v>
-      </c>
-      <c r="H36">
-        <v>9.5343459999999993</v>
-      </c>
-    </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D37">
-        <v>255</v>
-      </c>
-      <c r="H37">
-        <v>9.3734660000000005</v>
-      </c>
-    </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D38">
-        <v>263</v>
-      </c>
-      <c r="H38">
-        <v>9.283099</v>
-      </c>
-    </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D39">
-        <v>270</v>
-      </c>
-      <c r="H39">
-        <v>9.2519629999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D40">
-        <v>277</v>
-      </c>
-      <c r="H40">
-        <v>9.2631259999999997</v>
-      </c>
-    </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D41">
-        <v>285</v>
-      </c>
-      <c r="H41">
-        <v>9.3015120000000007</v>
-      </c>
-    </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D42">
-        <v>292</v>
-      </c>
-      <c r="H42">
-        <v>9.3577130000000004</v>
-      </c>
-    </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D43">
-        <v>299</v>
-      </c>
-      <c r="H43">
-        <v>9.4228039999999993</v>
-      </c>
-    </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D44">
-        <v>307</v>
-      </c>
-      <c r="H44">
-        <v>9.4817579999999992</v>
-      </c>
-    </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D45">
-        <v>314</v>
-      </c>
-      <c r="H45">
-        <v>9.5126760000000008</v>
-      </c>
-    </row>
-    <row r="46" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D46">
-        <v>321</v>
-      </c>
-      <c r="H46">
-        <v>9.4900269999999995</v>
-      </c>
-    </row>
-    <row r="47" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D47">
-        <v>328</v>
-      </c>
-      <c r="H47">
-        <v>9.3863319999999995</v>
-      </c>
-    </row>
-    <row r="48" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D48">
-        <v>336</v>
-      </c>
-      <c r="H48">
-        <v>9.1708820000000006</v>
-      </c>
-    </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D49">
-        <v>343</v>
-      </c>
-      <c r="H49">
-        <v>8.8703099999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D50">
-        <v>350</v>
-      </c>
-      <c r="H50">
-        <v>8.5697369999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693E4517-E340-4713-879D-063A7772622D}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -52972,30 +52324,30 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>155.44</v>
@@ -54371,30 +53723,30 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>145.78</v>
@@ -56398,30 +55750,30 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>144.27000000000001</v>
@@ -57986,30 +57338,30 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>140.32</v>
@@ -59690,30 +59042,30 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>153.88999999999999</v>
@@ -61925,30 +61277,30 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>168.43</v>
@@ -63225,30 +62577,30 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>164</v>

--- a/Volledige_Data_Set.xlsx
+++ b/Volledige_Data_Set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\Projects\Biomechanis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F1D646-A4E2-4232-B2E2-466B242E2DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91AF46F-7938-48EB-AE26-5042BDC620E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="31" activeTab="34" xr2:uid="{569A95A3-47FE-42D6-A588-8CC2E9F95304}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="18" activeTab="23" xr2:uid="{569A95A3-47FE-42D6-A588-8CC2E9F95304}"/>
   </bookViews>
   <sheets>
     <sheet name="Elien_Eigen_1" sheetId="32" r:id="rId1"/>
@@ -30411,8 +30411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BD8CBB-B7EE-4332-9C3E-07DF2D06BEC0}">
   <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30454,8 +30454,8 @@
         <v>153.53</v>
       </c>
       <c r="C2">
-        <f>MAX(I:I)</f>
-        <v>0</v>
+        <f>MAX(H:H)</f>
+        <v>18.579550000000001</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -52307,7 +52307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693E4517-E340-4713-879D-063A7772622D}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
